--- a/inst/extdata/ExampleCont.xlsx
+++ b/inst/extdata/ExampleCont.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbeck\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proj\AquaSensR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46507C68-4D0D-4F0E-B589-964950263BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7859D2-F241-438B-8D8D-E6CCE70E0831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8A2AE6C-EDC3-4226-B9D4-2DE8A25DC7E8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8A2AE6C-EDC3-4226-B9D4-2DE8A25DC7E8}"/>
   </bookViews>
   <sheets>
     <sheet name="YSI_SUD-DO_LoggerRaw" sheetId="1" r:id="rId1"/>
@@ -31,28 +31,28 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Water Temp_deg C</t>
+    <t>sud096</t>
   </si>
   <si>
-    <t>DO saturation_%</t>
+    <t>Water Temp_C</t>
   </si>
   <si>
-    <t>DO_mg/L</t>
+    <t>DO_pctsat</t>
   </si>
   <si>
-    <t>Conductivity_uS/cm</t>
+    <t>DO_mg_L</t>
   </si>
   <si>
-    <t>TDS_mg/L</t>
+    <t>Conductivity_uS_cm</t>
   </si>
   <si>
-    <t>Salinity_PSU</t>
+    <t>Salinity_psu</t>
   </si>
   <si>
-    <t>pH_s.u.</t>
+    <t>pH_SU</t>
   </si>
   <si>
-    <t>sud096</t>
+    <t>TDS_mg_L</t>
   </si>
 </sst>
 </file>
@@ -917,9 +917,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE77DDD-C3F5-41D2-B839-75EBAE8AAC72}">
   <dimension ref="A1:J928"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -932,19 +946,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -955,7 +969,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>45518</v>
@@ -987,7 +1001,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>45518</v>
@@ -1019,7 +1033,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>45518</v>
@@ -1051,7 +1065,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>45518</v>
@@ -1083,7 +1097,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>45518</v>
@@ -1115,7 +1129,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>45518</v>
@@ -1147,7 +1161,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>45518</v>
@@ -1179,7 +1193,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <v>45518</v>
@@ -1211,7 +1225,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
         <v>45518</v>
@@ -1243,7 +1257,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>45518</v>
@@ -1275,7 +1289,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
         <v>45518</v>
@@ -1307,7 +1321,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
         <v>45518</v>
@@ -1339,7 +1353,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
         <v>45518</v>
@@ -1371,7 +1385,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>45518</v>
@@ -1403,7 +1417,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1">
         <v>45518</v>
@@ -1435,7 +1449,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1">
         <v>45518</v>
@@ -1467,7 +1481,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
         <v>45518</v>
@@ -1499,7 +1513,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1">
         <v>45518</v>
@@ -1531,7 +1545,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1">
         <v>45518</v>
@@ -1563,7 +1577,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
         <v>45518</v>
@@ -1595,7 +1609,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1">
         <v>45518</v>
@@ -1627,7 +1641,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
         <v>45518</v>
@@ -1659,7 +1673,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1">
         <v>45518</v>
@@ -1691,7 +1705,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1">
         <v>45518</v>
@@ -1723,7 +1737,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1">
         <v>45518</v>
@@ -1755,7 +1769,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1">
         <v>45518</v>
@@ -1787,7 +1801,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1">
         <v>45518</v>
@@ -1819,7 +1833,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1">
         <v>45518</v>
@@ -1851,7 +1865,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1">
         <v>45518</v>
@@ -1883,7 +1897,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1">
         <v>45518</v>
@@ -1915,7 +1929,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1">
         <v>45518</v>
@@ -1947,7 +1961,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1">
         <v>45518</v>
@@ -1979,7 +1993,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1">
         <v>45518</v>
@@ -2011,7 +2025,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B35" s="1">
         <v>45518</v>
@@ -2043,7 +2057,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B36" s="1">
         <v>45518</v>
@@ -2075,7 +2089,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B37" s="1">
         <v>45518</v>
@@ -2107,7 +2121,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B38" s="1">
         <v>45518</v>
@@ -2139,7 +2153,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B39" s="1">
         <v>45518</v>
@@ -2171,7 +2185,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B40" s="1">
         <v>45518</v>
@@ -2203,7 +2217,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B41" s="1">
         <v>45518</v>
@@ -2235,7 +2249,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B42" s="1">
         <v>45518</v>
@@ -2267,7 +2281,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B43" s="1">
         <v>45518</v>
@@ -2299,7 +2313,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B44" s="1">
         <v>45518</v>
@@ -2331,7 +2345,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B45" s="1">
         <v>45518</v>
@@ -2363,7 +2377,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B46" s="1">
         <v>45518</v>
@@ -2395,7 +2409,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B47" s="1">
         <v>45518</v>
@@ -2427,7 +2441,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B48" s="1">
         <v>45518</v>
@@ -2459,7 +2473,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B49" s="1">
         <v>45518</v>
@@ -2491,7 +2505,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B50" s="1">
         <v>45518</v>
@@ -2523,7 +2537,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1">
         <v>45518</v>
@@ -2555,7 +2569,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B52" s="1">
         <v>45518</v>
@@ -2587,7 +2601,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B53" s="1">
         <v>45518</v>
@@ -2619,7 +2633,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B54" s="1">
         <v>45518</v>
@@ -2651,7 +2665,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B55" s="1">
         <v>45518</v>
@@ -2683,7 +2697,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B56" s="1">
         <v>45518</v>
@@ -2715,7 +2729,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1">
         <v>45518</v>
@@ -2747,7 +2761,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B58" s="1">
         <v>45518</v>
@@ -2779,7 +2793,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B59" s="1">
         <v>45518</v>
@@ -2811,7 +2825,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B60" s="1">
         <v>45518</v>
@@ -2843,7 +2857,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B61" s="1">
         <v>45518</v>
@@ -2875,7 +2889,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B62" s="1">
         <v>45518</v>
@@ -2907,7 +2921,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B63" s="1">
         <v>45518</v>
@@ -2939,7 +2953,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B64" s="1">
         <v>45518</v>
@@ -2971,7 +2985,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B65" s="1">
         <v>45518</v>
@@ -3003,7 +3017,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B66" s="1">
         <v>45518</v>
@@ -3035,7 +3049,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B67" s="1">
         <v>45518</v>
@@ -3067,7 +3081,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B68" s="1">
         <v>45518</v>
@@ -3099,7 +3113,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B69" s="1">
         <v>45518</v>
@@ -3131,7 +3145,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B70" s="1">
         <v>45518</v>
@@ -3163,7 +3177,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B71" s="1">
         <v>45518</v>
@@ -3195,7 +3209,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B72" s="1">
         <v>45518</v>
@@ -3227,7 +3241,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B73" s="1">
         <v>45518</v>
@@ -3259,7 +3273,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B74" s="1">
         <v>45518</v>
@@ -3291,7 +3305,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B75" s="1">
         <v>45518</v>
@@ -3323,7 +3337,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B76" s="1">
         <v>45518</v>
@@ -3355,7 +3369,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B77" s="1">
         <v>45518</v>
@@ -3387,7 +3401,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B78" s="1">
         <v>45518</v>
@@ -3419,7 +3433,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B79" s="1">
         <v>45518</v>
@@ -3451,7 +3465,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B80" s="1">
         <v>45518</v>
@@ -3483,7 +3497,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B81" s="1">
         <v>45518</v>
@@ -3515,7 +3529,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B82" s="1">
         <v>45518</v>
@@ -3547,7 +3561,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B83" s="1">
         <v>45518</v>
@@ -3579,7 +3593,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B84" s="1">
         <v>45518</v>
@@ -3611,7 +3625,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B85" s="1">
         <v>45518</v>
@@ -3643,7 +3657,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B86" s="1">
         <v>45518</v>
@@ -3675,7 +3689,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B87" s="1">
         <v>45518</v>
@@ -3707,7 +3721,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B88" s="1">
         <v>45518</v>
@@ -3739,7 +3753,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B89" s="1">
         <v>45518</v>
@@ -3771,7 +3785,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B90" s="1">
         <v>45518</v>
@@ -3803,7 +3817,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B91" s="1">
         <v>45518</v>
@@ -3835,7 +3849,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B92" s="1">
         <v>45518</v>
@@ -3867,7 +3881,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B93" s="1">
         <v>45518</v>
@@ -3899,7 +3913,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B94" s="1">
         <v>45518</v>
@@ -3931,7 +3945,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B95" s="1">
         <v>45518</v>
@@ -3963,7 +3977,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B96" s="1">
         <v>45518</v>
@@ -3995,7 +4009,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B97" s="1">
         <v>45518</v>
@@ -4027,7 +4041,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B98" s="1">
         <v>45518</v>
@@ -4059,7 +4073,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B99" s="1">
         <v>45518</v>
@@ -4091,7 +4105,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B100" s="1">
         <v>45518</v>
@@ -4123,7 +4137,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B101" s="1">
         <v>45518</v>
@@ -4155,7 +4169,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B102" s="1">
         <v>45518</v>
@@ -4187,7 +4201,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B103" s="1">
         <v>45518</v>
@@ -4219,7 +4233,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B104" s="1">
         <v>45518</v>
@@ -4251,7 +4265,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B105" s="1">
         <v>45518</v>
@@ -4283,7 +4297,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B106" s="1">
         <v>45518</v>
@@ -4315,7 +4329,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B107" s="1">
         <v>45518</v>
@@ -4347,7 +4361,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B108" s="1">
         <v>45518</v>
@@ -4379,7 +4393,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B109" s="1">
         <v>45518</v>
@@ -4411,7 +4425,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B110" s="1">
         <v>45518</v>
@@ -4443,7 +4457,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B111" s="1">
         <v>45518</v>
@@ -4475,7 +4489,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B112" s="1">
         <v>45518</v>
@@ -4507,7 +4521,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B113" s="1">
         <v>45518</v>
@@ -4539,7 +4553,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B114" s="1">
         <v>45518</v>
@@ -4571,7 +4585,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B115" s="1">
         <v>45518</v>
@@ -4603,7 +4617,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B116" s="1">
         <v>45518</v>
@@ -4635,7 +4649,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B117" s="1">
         <v>45518</v>
@@ -4667,7 +4681,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B118" s="1">
         <v>45518</v>
@@ -4699,7 +4713,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B119" s="1">
         <v>45518</v>
@@ -4731,7 +4745,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B120" s="1">
         <v>45518</v>
@@ -4763,7 +4777,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B121" s="1">
         <v>45518</v>
@@ -4795,7 +4809,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B122" s="1">
         <v>45518</v>
@@ -4827,7 +4841,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B123" s="1">
         <v>45518</v>
@@ -4859,7 +4873,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B124" s="1">
         <v>45518</v>
@@ -4891,7 +4905,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B125" s="1">
         <v>45518</v>
@@ -4923,7 +4937,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B126" s="1">
         <v>45518</v>
@@ -4955,7 +4969,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B127" s="1">
         <v>45518</v>
@@ -4987,7 +5001,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B128" s="1">
         <v>45518</v>
@@ -5019,7 +5033,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B129" s="1">
         <v>45518</v>
@@ -5051,7 +5065,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B130" s="1">
         <v>45518</v>
@@ -5083,7 +5097,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B131" s="1">
         <v>45518</v>
@@ -5115,7 +5129,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B132" s="1">
         <v>45518</v>
@@ -5147,7 +5161,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B133" s="1">
         <v>45518</v>
@@ -5179,7 +5193,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B134" s="1">
         <v>45518</v>
@@ -5211,7 +5225,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B135" s="1">
         <v>45518</v>
@@ -5243,7 +5257,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B136" s="1">
         <v>45518</v>
@@ -5275,7 +5289,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B137" s="1">
         <v>45518</v>
@@ -5307,7 +5321,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B138" s="1">
         <v>45518</v>
@@ -5339,7 +5353,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B139" s="1">
         <v>45518</v>
@@ -5371,7 +5385,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B140" s="1">
         <v>45518</v>
@@ -5403,7 +5417,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B141" s="1">
         <v>45518</v>
@@ -5435,7 +5449,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B142" s="1">
         <v>45518</v>
@@ -5467,7 +5481,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B143" s="1">
         <v>45518</v>
@@ -5499,7 +5513,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B144" s="1">
         <v>45518</v>
@@ -5531,7 +5545,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B145" s="1">
         <v>45518</v>
@@ -5563,7 +5577,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B146" s="1">
         <v>45518</v>
@@ -5595,7 +5609,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B147" s="1">
         <v>45518</v>
@@ -5627,7 +5641,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B148" s="1">
         <v>45518</v>
@@ -5659,7 +5673,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B149" s="1">
         <v>45518</v>
@@ -5691,7 +5705,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B150" s="1">
         <v>45518</v>
@@ -5723,7 +5737,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B151" s="1">
         <v>45518</v>
@@ -5755,7 +5769,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B152" s="1">
         <v>45518</v>
@@ -5787,7 +5801,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B153" s="1">
         <v>45518</v>
@@ -5819,7 +5833,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B154" s="1">
         <v>45518</v>
@@ -5851,7 +5865,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B155" s="1">
         <v>45518</v>
@@ -5883,7 +5897,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B156" s="1">
         <v>45518</v>
@@ -5915,7 +5929,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B157" s="1">
         <v>45518</v>
@@ -5947,7 +5961,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B158" s="1">
         <v>45518</v>
@@ -5979,7 +5993,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B159" s="1">
         <v>45518</v>
@@ -6011,7 +6025,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B160" s="1">
         <v>45518</v>
@@ -6043,7 +6057,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B161" s="1">
         <v>45518</v>
@@ -6075,7 +6089,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B162" s="1">
         <v>45518</v>
@@ -6107,7 +6121,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B163" s="1">
         <v>45518</v>
@@ -6139,7 +6153,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B164" s="1">
         <v>45518</v>
@@ -6171,7 +6185,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B165" s="1">
         <v>45518</v>
@@ -6203,7 +6217,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B166" s="1">
         <v>45518</v>
@@ -6235,7 +6249,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B167" s="1">
         <v>45518</v>
@@ -6267,7 +6281,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B168" s="1">
         <v>45518</v>
@@ -6299,7 +6313,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B169" s="1">
         <v>45518</v>
@@ -6331,7 +6345,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B170" s="1">
         <v>45518</v>
@@ -6363,7 +6377,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B171" s="1">
         <v>45518</v>
@@ -6395,7 +6409,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B172" s="1">
         <v>45518</v>
@@ -6427,7 +6441,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B173" s="1">
         <v>45518</v>
@@ -6459,7 +6473,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B174" s="1">
         <v>45518</v>
@@ -6491,7 +6505,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B175" s="1">
         <v>45518</v>
@@ -6523,7 +6537,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B176" s="1">
         <v>45518</v>
@@ -6555,7 +6569,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B177" s="1">
         <v>45518</v>
@@ -6587,7 +6601,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B178" s="1">
         <v>45518</v>
@@ -6619,7 +6633,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B179" s="1">
         <v>45518</v>
@@ -6651,7 +6665,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B180" s="1">
         <v>45518</v>
@@ -6683,7 +6697,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B181" s="1">
         <v>45518</v>
@@ -6715,7 +6729,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B182" s="1">
         <v>45518</v>
@@ -6747,7 +6761,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B183" s="1">
         <v>45518</v>
@@ -6779,7 +6793,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B184" s="1">
         <v>45518</v>
@@ -6811,7 +6825,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B185" s="1">
         <v>45518</v>
@@ -6843,7 +6857,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B186" s="1">
         <v>45518</v>
@@ -6875,7 +6889,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B187" s="1">
         <v>45518</v>
@@ -6907,7 +6921,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B188" s="1">
         <v>45518</v>
@@ -6939,7 +6953,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B189" s="1">
         <v>45518</v>
@@ -6971,7 +6985,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B190" s="1">
         <v>45518</v>
@@ -7003,7 +7017,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B191" s="1">
         <v>45518</v>
@@ -7035,7 +7049,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B192" s="1">
         <v>45518</v>
@@ -7067,7 +7081,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B193" s="1">
         <v>45518</v>
@@ -7099,7 +7113,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B194" s="1">
         <v>45518</v>
@@ -7131,7 +7145,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B195" s="1">
         <v>45518</v>
@@ -7163,7 +7177,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B196" s="1">
         <v>45518</v>
@@ -7195,7 +7209,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B197" s="1">
         <v>45518</v>
@@ -7227,7 +7241,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B198" s="1">
         <v>45518</v>
@@ -7259,7 +7273,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B199" s="1">
         <v>45518</v>
@@ -7291,7 +7305,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B200" s="1">
         <v>45518</v>
@@ -7323,7 +7337,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B201" s="1">
         <v>45518</v>
@@ -7355,7 +7369,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B202" s="1">
         <v>45518</v>
@@ -7387,7 +7401,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B203" s="1">
         <v>45518</v>
@@ -7419,7 +7433,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B204" s="1">
         <v>45518</v>
@@ -7451,7 +7465,7 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B205" s="1">
         <v>45518</v>
@@ -7483,7 +7497,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B206" s="1">
         <v>45518</v>
@@ -7515,7 +7529,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B207" s="1">
         <v>45518</v>
@@ -7547,7 +7561,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B208" s="1">
         <v>45518</v>
@@ -7579,7 +7593,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B209" s="1">
         <v>45518</v>
@@ -7611,7 +7625,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B210" s="1">
         <v>45518</v>
@@ -7643,7 +7657,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B211" s="1">
         <v>45518</v>
@@ -7675,7 +7689,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B212" s="1">
         <v>45518</v>
@@ -7707,7 +7721,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B213" s="1">
         <v>45518</v>
@@ -7739,7 +7753,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B214" s="1">
         <v>45518</v>
@@ -7771,7 +7785,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B215" s="1">
         <v>45518</v>
@@ -7803,7 +7817,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B216" s="1">
         <v>45518</v>
@@ -7835,7 +7849,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B217" s="1">
         <v>45518</v>
@@ -7867,7 +7881,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B218" s="1">
         <v>45518</v>
@@ -7899,7 +7913,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B219" s="1">
         <v>45518</v>
@@ -7931,7 +7945,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B220" s="1">
         <v>45518</v>
@@ -7963,7 +7977,7 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B221" s="1">
         <v>45518</v>
@@ -7995,7 +8009,7 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B222" s="1">
         <v>45518</v>
@@ -8027,7 +8041,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B223" s="1">
         <v>45518</v>
@@ -8059,7 +8073,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B224" s="1">
         <v>45518</v>
@@ -8091,7 +8105,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B225" s="1">
         <v>45518</v>
@@ -8123,7 +8137,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B226" s="1">
         <v>45518</v>
@@ -8155,7 +8169,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B227" s="1">
         <v>45518</v>
@@ -8187,7 +8201,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B228" s="1">
         <v>45518</v>
@@ -8219,7 +8233,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B229" s="1">
         <v>45518</v>
@@ -8251,7 +8265,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B230" s="1">
         <v>45518</v>
@@ -8283,7 +8297,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B231" s="1">
         <v>45518</v>
@@ -8315,7 +8329,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B232" s="1">
         <v>45518</v>
@@ -8347,7 +8361,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B233" s="1">
         <v>45518</v>
@@ -8379,7 +8393,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B234" s="1">
         <v>45518</v>
@@ -8411,7 +8425,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B235" s="1">
         <v>45518</v>
@@ -8443,7 +8457,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B236" s="1">
         <v>45518</v>
@@ -8475,7 +8489,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B237" s="1">
         <v>45518</v>
@@ -8507,7 +8521,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B238" s="1">
         <v>45518</v>
@@ -8539,7 +8553,7 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B239" s="1">
         <v>45518</v>
@@ -8571,7 +8585,7 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B240" s="1">
         <v>45518</v>
@@ -8603,7 +8617,7 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B241" s="1">
         <v>45518</v>
@@ -8635,7 +8649,7 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B242" s="1">
         <v>45518</v>
@@ -8667,7 +8681,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B243" s="1">
         <v>45518</v>
@@ -8699,7 +8713,7 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B244" s="1">
         <v>45518</v>
@@ -8731,7 +8745,7 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B245" s="1">
         <v>45518</v>
@@ -8763,7 +8777,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B246" s="1">
         <v>45518</v>
@@ -8795,7 +8809,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B247" s="1">
         <v>45518</v>
@@ -8827,7 +8841,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B248" s="1">
         <v>45518</v>
@@ -8859,7 +8873,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B249" s="1">
         <v>45518</v>
@@ -8891,7 +8905,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B250" s="1">
         <v>45518</v>
@@ -8923,7 +8937,7 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B251" s="1">
         <v>45518</v>
@@ -8955,7 +8969,7 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B252" s="1">
         <v>45518</v>
@@ -8987,7 +9001,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B253" s="1">
         <v>45518</v>
@@ -9019,7 +9033,7 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B254" s="1">
         <v>45518</v>
@@ -9051,7 +9065,7 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B255" s="1">
         <v>45518</v>
@@ -9083,7 +9097,7 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B256" s="1">
         <v>45518</v>
@@ -9115,7 +9129,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B257" s="1">
         <v>45518</v>
@@ -9147,7 +9161,7 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B258" s="1">
         <v>45518</v>
@@ -9179,7 +9193,7 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B259" s="1">
         <v>45518</v>
@@ -9211,7 +9225,7 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B260" s="1">
         <v>45518</v>
@@ -9243,7 +9257,7 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B261" s="1">
         <v>45518</v>
@@ -9275,7 +9289,7 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B262" s="1">
         <v>45518</v>
@@ -9307,7 +9321,7 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B263" s="1">
         <v>45518</v>
@@ -9339,7 +9353,7 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B264" s="1">
         <v>45518</v>
@@ -9371,7 +9385,7 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B265" s="1">
         <v>45518</v>
@@ -9403,7 +9417,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B266" s="1">
         <v>45518</v>
@@ -9435,7 +9449,7 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B267" s="1">
         <v>45518</v>
@@ -9467,7 +9481,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B268" s="1">
         <v>45518</v>
@@ -9499,7 +9513,7 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B269" s="1">
         <v>45518</v>
@@ -9531,7 +9545,7 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B270" s="1">
         <v>45518</v>
@@ -9563,7 +9577,7 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B271" s="1">
         <v>45518</v>
@@ -9595,7 +9609,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B272" s="1">
         <v>45518</v>
@@ -9627,7 +9641,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B273" s="1">
         <v>45518</v>
@@ -9659,7 +9673,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B274" s="1">
         <v>45518</v>
@@ -9691,7 +9705,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B275" s="1">
         <v>45518</v>
@@ -9723,7 +9737,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B276" s="1">
         <v>45518</v>
@@ -9755,7 +9769,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B277" s="1">
         <v>45518</v>
@@ -9787,7 +9801,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B278" s="1">
         <v>45518</v>
@@ -9819,7 +9833,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B279" s="1">
         <v>45518</v>
@@ -9851,7 +9865,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B280" s="1">
         <v>45518</v>
@@ -9883,7 +9897,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B281" s="1">
         <v>45518</v>
@@ -9915,7 +9929,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B282" s="1">
         <v>45518</v>
@@ -9947,7 +9961,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B283" s="1">
         <v>45518</v>
@@ -9979,7 +9993,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B284" s="1">
         <v>45518</v>
@@ -10011,7 +10025,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B285" s="1">
         <v>45518</v>
@@ -10043,7 +10057,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B286" s="1">
         <v>45518</v>
@@ -10075,7 +10089,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B287" s="1">
         <v>45518</v>
@@ -10107,7 +10121,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B288" s="1">
         <v>45518</v>
@@ -10139,7 +10153,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B289" s="1">
         <v>45518</v>
@@ -10171,7 +10185,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B290" s="1">
         <v>45518</v>
@@ -10203,7 +10217,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B291" s="1">
         <v>45518</v>
@@ -10235,7 +10249,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B292" s="1">
         <v>45518</v>
@@ -10267,7 +10281,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B293" s="1">
         <v>45518</v>
@@ -10299,7 +10313,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B294" s="1">
         <v>45518</v>
@@ -10331,7 +10345,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B295" s="1">
         <v>45518</v>
@@ -10363,7 +10377,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B296" s="1">
         <v>45518</v>
@@ -10395,7 +10409,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B297" s="1">
         <v>45518</v>
@@ -10427,7 +10441,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B298" s="1">
         <v>45518</v>
@@ -10459,7 +10473,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B299" s="1">
         <v>45518</v>
@@ -10491,7 +10505,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B300" s="1">
         <v>45518</v>
@@ -10523,7 +10537,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B301" s="1">
         <v>45518</v>
@@ -10555,7 +10569,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B302" s="1">
         <v>45518</v>
@@ -10587,7 +10601,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B303" s="1">
         <v>45518</v>
@@ -10619,7 +10633,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B304" s="1">
         <v>45518</v>
@@ -10651,7 +10665,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B305" s="1">
         <v>45518</v>
@@ -10683,7 +10697,7 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B306" s="1">
         <v>45518</v>
@@ -10715,7 +10729,7 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B307" s="1">
         <v>45518</v>
@@ -10747,7 +10761,7 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B308" s="1">
         <v>45518</v>
@@ -10779,7 +10793,7 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B309" s="1">
         <v>45518</v>
@@ -10811,7 +10825,7 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B310" s="1">
         <v>45518</v>
@@ -10843,7 +10857,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B311" s="1">
         <v>45518</v>
@@ -10875,7 +10889,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B312" s="1">
         <v>45518</v>
@@ -10907,7 +10921,7 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B313" s="1">
         <v>45518</v>
@@ -10939,7 +10953,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B314" s="1">
         <v>45518</v>
@@ -10971,7 +10985,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B315" s="1">
         <v>45518</v>
@@ -11003,7 +11017,7 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B316" s="1">
         <v>45518</v>
@@ -11035,7 +11049,7 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B317" s="1">
         <v>45518</v>
@@ -11067,7 +11081,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B318" s="1">
         <v>45518</v>
@@ -11099,7 +11113,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B319" s="1">
         <v>45518</v>
@@ -11131,7 +11145,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B320" s="1">
         <v>45518</v>
@@ -11163,7 +11177,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B321" s="1">
         <v>45518</v>
@@ -11195,7 +11209,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B322" s="1">
         <v>45518</v>
@@ -11227,7 +11241,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B323" s="1">
         <v>45518</v>
@@ -11259,7 +11273,7 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B324" s="1">
         <v>45518</v>
@@ -11291,7 +11305,7 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B325" s="1">
         <v>45518</v>
@@ -11323,7 +11337,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B326" s="1">
         <v>45518</v>
@@ -11355,7 +11369,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B327" s="1">
         <v>45518</v>
@@ -11387,7 +11401,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B328" s="1">
         <v>45518</v>
@@ -11419,7 +11433,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B329" s="1">
         <v>45518</v>
@@ -11451,7 +11465,7 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B330" s="1">
         <v>45518</v>
@@ -11483,7 +11497,7 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B331" s="1">
         <v>45518</v>
@@ -11515,7 +11529,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B332" s="1">
         <v>45518</v>
@@ -11547,7 +11561,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B333" s="1">
         <v>45518</v>
@@ -11579,7 +11593,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B334" s="1">
         <v>45518</v>
@@ -11611,7 +11625,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B335" s="1">
         <v>45518</v>
@@ -11643,7 +11657,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B336" s="1">
         <v>45518</v>
@@ -11675,7 +11689,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B337" s="1">
         <v>45518</v>
@@ -11707,7 +11721,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B338" s="1">
         <v>45518</v>
@@ -11739,7 +11753,7 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B339" s="1">
         <v>45518</v>
@@ -11771,7 +11785,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B340" s="1">
         <v>45518</v>
@@ -11803,7 +11817,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B341" s="1">
         <v>45518</v>
@@ -11835,7 +11849,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B342" s="1">
         <v>45518</v>
@@ -11867,7 +11881,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B343" s="1">
         <v>45518</v>
@@ -11899,7 +11913,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B344" s="1">
         <v>45518</v>
@@ -11931,7 +11945,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B345" s="1">
         <v>45518</v>
@@ -11963,7 +11977,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B346" s="1">
         <v>45518</v>
@@ -11995,7 +12009,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B347" s="1">
         <v>45518</v>
@@ -12027,7 +12041,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B348" s="1">
         <v>45518</v>
@@ -12059,7 +12073,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B349" s="1">
         <v>45518</v>
@@ -12091,7 +12105,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B350" s="1">
         <v>45518</v>
@@ -12123,7 +12137,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B351" s="1">
         <v>45518</v>
@@ -12155,7 +12169,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B352" s="1">
         <v>45518</v>
@@ -12187,7 +12201,7 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B353" s="1">
         <v>45518</v>
@@ -12219,7 +12233,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B354" s="1">
         <v>45518</v>
@@ -12251,7 +12265,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B355" s="1">
         <v>45518</v>
@@ -12283,7 +12297,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B356" s="1">
         <v>45518</v>
@@ -12315,7 +12329,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B357" s="1">
         <v>45518</v>
@@ -12347,7 +12361,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B358" s="1">
         <v>45518</v>
@@ -12379,7 +12393,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B359" s="1">
         <v>45518</v>
@@ -12411,7 +12425,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B360" s="1">
         <v>45518</v>
@@ -12443,7 +12457,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B361" s="1">
         <v>45518</v>
@@ -12475,7 +12489,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B362" s="1">
         <v>45518</v>
@@ -12507,7 +12521,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B363" s="1">
         <v>45518</v>
@@ -12539,7 +12553,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B364" s="1">
         <v>45518</v>
@@ -12571,7 +12585,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B365" s="1">
         <v>45518</v>
@@ -12603,7 +12617,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B366" s="1">
         <v>45518</v>
@@ -12635,7 +12649,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B367" s="1">
         <v>45518</v>
@@ -12667,7 +12681,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B368" s="1">
         <v>45518</v>
@@ -12699,7 +12713,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B369" s="1">
         <v>45518</v>
@@ -12731,7 +12745,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B370" s="1">
         <v>45518</v>
@@ -12763,7 +12777,7 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B371" s="1">
         <v>45518</v>
@@ -12795,7 +12809,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B372" s="1">
         <v>45518</v>
@@ -12827,7 +12841,7 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B373" s="1">
         <v>45518</v>
@@ -12859,7 +12873,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B374" s="1">
         <v>45518</v>
@@ -12891,7 +12905,7 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B375" s="1">
         <v>45518</v>
@@ -12923,7 +12937,7 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B376" s="1">
         <v>45518</v>
@@ -12955,7 +12969,7 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B377" s="1">
         <v>45518</v>
@@ -12987,7 +13001,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B378" s="1">
         <v>45518</v>
@@ -13019,7 +13033,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B379" s="1">
         <v>45518</v>
@@ -13051,7 +13065,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B380" s="1">
         <v>45518</v>
@@ -13083,7 +13097,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B381" s="1">
         <v>45518</v>
@@ -13115,7 +13129,7 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B382" s="1">
         <v>45518</v>
@@ -13147,7 +13161,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B383" s="1">
         <v>45518</v>
@@ -13179,7 +13193,7 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B384" s="1">
         <v>45518</v>
@@ -13211,7 +13225,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B385" s="1">
         <v>45518</v>
@@ -13243,7 +13257,7 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B386" s="1">
         <v>45518</v>
@@ -13275,7 +13289,7 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B387" s="1">
         <v>45518</v>
@@ -13307,7 +13321,7 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B388" s="1">
         <v>45518</v>
@@ -13339,7 +13353,7 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B389" s="1">
         <v>45518</v>
@@ -13371,7 +13385,7 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B390" s="1">
         <v>45518</v>
@@ -13403,7 +13417,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B391" s="1">
         <v>45518</v>
@@ -13435,7 +13449,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B392" s="1">
         <v>45518</v>
@@ -13467,7 +13481,7 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B393" s="1">
         <v>45518</v>
@@ -13499,7 +13513,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B394" s="1">
         <v>45518</v>
@@ -13531,7 +13545,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B395" s="1">
         <v>45518</v>
@@ -13563,7 +13577,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B396" s="1">
         <v>45518</v>
@@ -13595,7 +13609,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B397" s="1">
         <v>45518</v>
@@ -13627,7 +13641,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B398" s="1">
         <v>45518</v>
@@ -13659,7 +13673,7 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B399" s="1">
         <v>45518</v>
@@ -13691,7 +13705,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B400" s="1">
         <v>45518</v>
@@ -13723,7 +13737,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B401" s="1">
         <v>45518</v>
@@ -13755,7 +13769,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B402" s="1">
         <v>45518</v>
@@ -13787,7 +13801,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B403" s="1">
         <v>45518</v>
@@ -13819,7 +13833,7 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B404" s="1">
         <v>45518</v>
@@ -13851,7 +13865,7 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B405" s="1">
         <v>45518</v>
@@ -13883,7 +13897,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B406" s="1">
         <v>45518</v>
@@ -13915,7 +13929,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B407" s="1">
         <v>45518</v>
@@ -13947,7 +13961,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B408" s="1">
         <v>45518</v>
@@ -13979,7 +13993,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B409" s="1">
         <v>45518</v>
@@ -14011,7 +14025,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B410" s="1">
         <v>45518</v>
@@ -14043,7 +14057,7 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B411" s="1">
         <v>45518</v>
@@ -14075,7 +14089,7 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B412" s="1">
         <v>45518</v>
@@ -14107,7 +14121,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B413" s="1">
         <v>45518</v>
@@ -14139,7 +14153,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B414" s="1">
         <v>45518</v>
@@ -14171,7 +14185,7 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B415" s="1">
         <v>45518</v>
@@ -14203,7 +14217,7 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B416" s="1">
         <v>45518</v>
@@ -14235,7 +14249,7 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B417" s="1">
         <v>45518</v>
@@ -14267,7 +14281,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B418" s="1">
         <v>45518</v>
@@ -14299,7 +14313,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B419" s="1">
         <v>45518</v>
@@ -14331,7 +14345,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B420" s="1">
         <v>45518</v>
@@ -14363,7 +14377,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B421" s="1">
         <v>45518</v>
@@ -14395,7 +14409,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B422" s="1">
         <v>45518</v>
@@ -14427,7 +14441,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B423" s="1">
         <v>45518</v>
@@ -14459,7 +14473,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B424" s="1">
         <v>45518</v>
@@ -14491,7 +14505,7 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B425" s="1">
         <v>45518</v>
@@ -14523,7 +14537,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B426" s="1">
         <v>45518</v>
@@ -14555,7 +14569,7 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B427" s="1">
         <v>45518</v>
@@ -14587,7 +14601,7 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B428" s="1">
         <v>45518</v>
@@ -14619,7 +14633,7 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B429" s="1">
         <v>45518</v>
@@ -14651,7 +14665,7 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B430" s="1">
         <v>45518</v>
@@ -14683,7 +14697,7 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B431" s="1">
         <v>45518</v>
@@ -14715,7 +14729,7 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B432" s="1">
         <v>45518</v>
@@ -14747,7 +14761,7 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B433" s="1">
         <v>45518</v>
@@ -14779,7 +14793,7 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B434" s="1">
         <v>45518</v>
@@ -14811,7 +14825,7 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B435" s="1">
         <v>45518</v>
@@ -14843,7 +14857,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B436" s="1">
         <v>45518</v>
@@ -14875,7 +14889,7 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B437" s="1">
         <v>45518</v>
@@ -14907,7 +14921,7 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B438" s="1">
         <v>45518</v>
@@ -14939,7 +14953,7 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B439" s="1">
         <v>45518</v>
@@ -14971,7 +14985,7 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B440" s="1">
         <v>45518</v>
@@ -15003,7 +15017,7 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B441" s="1">
         <v>45518</v>
@@ -15035,7 +15049,7 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B442" s="1">
         <v>45518</v>
@@ -15067,7 +15081,7 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B443" s="1">
         <v>45518</v>
@@ -15099,7 +15113,7 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B444" s="1">
         <v>45518</v>
@@ -15131,7 +15145,7 @@
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B445" s="1">
         <v>45518</v>
@@ -15163,7 +15177,7 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B446" s="1">
         <v>45518</v>
@@ -15195,7 +15209,7 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B447" s="1">
         <v>45518</v>
@@ -15227,7 +15241,7 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B448" s="1">
         <v>45518</v>
@@ -15259,7 +15273,7 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B449" s="1">
         <v>45518</v>
@@ -15291,7 +15305,7 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B450" s="1">
         <v>45518</v>
@@ -15323,7 +15337,7 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B451" s="1">
         <v>45518</v>
@@ -15355,7 +15369,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B452" s="1">
         <v>45518</v>
@@ -15387,7 +15401,7 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B453" s="1">
         <v>45518</v>
@@ -15419,7 +15433,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B454" s="1">
         <v>45518</v>
@@ -15451,7 +15465,7 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B455" s="1">
         <v>45518</v>
@@ -15483,7 +15497,7 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B456" s="1">
         <v>45518</v>
@@ -15515,7 +15529,7 @@
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B457" s="1">
         <v>45518</v>
@@ -15547,7 +15561,7 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B458" s="1">
         <v>45518</v>
@@ -15579,7 +15593,7 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B459" s="1">
         <v>45518</v>
@@ -15611,7 +15625,7 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B460" s="1">
         <v>45518</v>
@@ -15643,7 +15657,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B461" s="1">
         <v>45518</v>
@@ -15675,7 +15689,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B462" s="1">
         <v>45518</v>
@@ -15707,7 +15721,7 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B463" s="1">
         <v>45518</v>
@@ -15739,7 +15753,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B464" s="1">
         <v>45518</v>
@@ -15771,7 +15785,7 @@
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B465" s="1">
         <v>45518</v>
@@ -15803,7 +15817,7 @@
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B466" s="1">
         <v>45518</v>
@@ -15835,7 +15849,7 @@
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B467" s="1">
         <v>45518</v>
@@ -15867,7 +15881,7 @@
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B468" s="1">
         <v>45518</v>
@@ -15899,7 +15913,7 @@
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B469" s="1">
         <v>45518</v>
@@ -15931,7 +15945,7 @@
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B470" s="1">
         <v>45518</v>
@@ -15963,7 +15977,7 @@
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B471" s="1">
         <v>45518</v>
@@ -15995,7 +16009,7 @@
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B472" s="1">
         <v>45518</v>
@@ -16027,7 +16041,7 @@
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B473" s="1">
         <v>45518</v>
@@ -16059,7 +16073,7 @@
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B474" s="1">
         <v>45518</v>
@@ -16091,7 +16105,7 @@
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B475" s="1">
         <v>45518</v>
@@ -16123,7 +16137,7 @@
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B476" s="1">
         <v>45518</v>
@@ -16155,7 +16169,7 @@
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B477" s="1">
         <v>45518</v>
@@ -16187,7 +16201,7 @@
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B478" s="1">
         <v>45518</v>
@@ -16219,7 +16233,7 @@
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B479" s="1">
         <v>45518</v>
@@ -16251,7 +16265,7 @@
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B480" s="1">
         <v>45518</v>
@@ -16283,7 +16297,7 @@
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B481" s="1">
         <v>45518</v>
@@ -16315,7 +16329,7 @@
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B482" s="1">
         <v>45518</v>
@@ -16347,7 +16361,7 @@
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B483" s="1">
         <v>45518</v>
@@ -16379,7 +16393,7 @@
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B484" s="1">
         <v>45518</v>
@@ -16411,7 +16425,7 @@
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B485" s="1">
         <v>45518</v>
@@ -16443,7 +16457,7 @@
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B486" s="1">
         <v>45518</v>
@@ -16475,7 +16489,7 @@
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B487" s="1">
         <v>45518</v>
@@ -16507,7 +16521,7 @@
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B488" s="1">
         <v>45518</v>
@@ -16539,7 +16553,7 @@
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B489" s="1">
         <v>45518</v>
@@ -16571,7 +16585,7 @@
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B490" s="1">
         <v>45518</v>
@@ -16603,7 +16617,7 @@
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B491" s="1">
         <v>45518</v>
@@ -16635,7 +16649,7 @@
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B492" s="1">
         <v>45518</v>
@@ -16667,7 +16681,7 @@
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B493" s="1">
         <v>45518</v>
@@ -16699,7 +16713,7 @@
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B494" s="1">
         <v>45518</v>
@@ -16731,7 +16745,7 @@
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B495" s="1">
         <v>45518</v>
@@ -16763,7 +16777,7 @@
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B496" s="1">
         <v>45518</v>
@@ -16795,7 +16809,7 @@
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B497" s="1">
         <v>45518</v>
@@ -16827,7 +16841,7 @@
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B498" s="1">
         <v>45518</v>
@@ -16859,7 +16873,7 @@
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B499" s="1">
         <v>45518</v>
@@ -16891,7 +16905,7 @@
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B500" s="1">
         <v>45518</v>
@@ -16923,7 +16937,7 @@
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B501" s="1">
         <v>45518</v>
@@ -16955,7 +16969,7 @@
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B502" s="1">
         <v>45518</v>
@@ -16987,7 +17001,7 @@
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B503" s="1">
         <v>45518</v>
@@ -17019,7 +17033,7 @@
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B504" s="1">
         <v>45518</v>
@@ -17051,7 +17065,7 @@
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B505" s="1">
         <v>45518</v>
@@ -17083,7 +17097,7 @@
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B506" s="1">
         <v>45518</v>
@@ -17115,7 +17129,7 @@
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B507" s="1">
         <v>45518</v>
@@ -17147,7 +17161,7 @@
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B508" s="1">
         <v>45518</v>
@@ -17179,7 +17193,7 @@
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B509" s="1">
         <v>45518</v>
@@ -17211,7 +17225,7 @@
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B510" s="1">
         <v>45518</v>
@@ -17243,7 +17257,7 @@
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B511" s="1">
         <v>45518</v>
@@ -17275,7 +17289,7 @@
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B512" s="1">
         <v>45518</v>
@@ -17307,7 +17321,7 @@
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B513" s="1">
         <v>45518</v>
@@ -17339,7 +17353,7 @@
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B514" s="1">
         <v>45518</v>
@@ -17371,7 +17385,7 @@
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B515" s="1">
         <v>45518</v>
@@ -17403,7 +17417,7 @@
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B516" s="1">
         <v>45518</v>
@@ -17435,7 +17449,7 @@
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B517" s="1">
         <v>45518</v>
@@ -17467,7 +17481,7 @@
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B518" s="1">
         <v>45518</v>
@@ -17499,7 +17513,7 @@
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B519" s="1">
         <v>45518</v>
@@ -17531,7 +17545,7 @@
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B520" s="1">
         <v>45518</v>
@@ -17563,7 +17577,7 @@
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B521" s="1">
         <v>45518</v>
@@ -17595,7 +17609,7 @@
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B522" s="1">
         <v>45518</v>
@@ -17627,7 +17641,7 @@
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B523" s="1">
         <v>45518</v>
@@ -17659,7 +17673,7 @@
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B524" s="1">
         <v>45518</v>
@@ -17691,7 +17705,7 @@
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B525" s="1">
         <v>45518</v>
@@ -17723,7 +17737,7 @@
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B526" s="1">
         <v>45518</v>
@@ -17755,7 +17769,7 @@
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B527" s="1">
         <v>45518</v>
@@ -17787,7 +17801,7 @@
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B528" s="1">
         <v>45518</v>
@@ -17819,7 +17833,7 @@
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B529" s="1">
         <v>45518</v>
@@ -17851,7 +17865,7 @@
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B530" s="1">
         <v>45518</v>
@@ -17883,7 +17897,7 @@
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B531" s="1">
         <v>45518</v>
@@ -17915,7 +17929,7 @@
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B532" s="1">
         <v>45518</v>
@@ -17947,7 +17961,7 @@
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B533" s="1">
         <v>45518</v>
@@ -17979,7 +17993,7 @@
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B534" s="1">
         <v>45518</v>
@@ -18011,7 +18025,7 @@
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B535" s="1">
         <v>45518</v>
@@ -18043,7 +18057,7 @@
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B536" s="1">
         <v>45518</v>
@@ -18075,7 +18089,7 @@
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B537" s="1">
         <v>45518</v>
@@ -18107,7 +18121,7 @@
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B538" s="1">
         <v>45518</v>
@@ -18139,7 +18153,7 @@
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B539" s="1">
         <v>45518</v>
@@ -18171,7 +18185,7 @@
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B540" s="1">
         <v>45518</v>
@@ -18203,7 +18217,7 @@
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B541" s="1">
         <v>45518</v>
@@ -18235,7 +18249,7 @@
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B542" s="1">
         <v>45518</v>
@@ -18267,7 +18281,7 @@
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B543" s="1">
         <v>45518</v>
@@ -18299,7 +18313,7 @@
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B544" s="1">
         <v>45518</v>
@@ -18331,7 +18345,7 @@
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B545" s="1">
         <v>45518</v>
@@ -18363,7 +18377,7 @@
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B546" s="1">
         <v>45518</v>
@@ -18395,7 +18409,7 @@
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B547" s="1">
         <v>45518</v>
@@ -18427,7 +18441,7 @@
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B548" s="1">
         <v>45518</v>
@@ -18459,7 +18473,7 @@
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B549" s="1">
         <v>45518</v>
@@ -18491,7 +18505,7 @@
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B550" s="1">
         <v>45518</v>
@@ -18523,7 +18537,7 @@
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B551" s="1">
         <v>45518</v>
@@ -18555,7 +18569,7 @@
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B552" s="1">
         <v>45518</v>
@@ -18587,7 +18601,7 @@
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B553" s="1">
         <v>45518</v>
@@ -18619,7 +18633,7 @@
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B554" s="1">
         <v>45518</v>
@@ -18651,7 +18665,7 @@
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B555" s="1">
         <v>45518</v>
@@ -18683,7 +18697,7 @@
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B556" s="1">
         <v>45518</v>
@@ -18715,7 +18729,7 @@
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B557" s="1">
         <v>45518</v>
@@ -18747,7 +18761,7 @@
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B558" s="1">
         <v>45518</v>
@@ -18779,7 +18793,7 @@
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B559" s="1">
         <v>45518</v>
@@ -18811,7 +18825,7 @@
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B560" s="1">
         <v>45518</v>
@@ -18843,7 +18857,7 @@
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B561" s="1">
         <v>45518</v>
@@ -18875,7 +18889,7 @@
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B562" s="1">
         <v>45518</v>
@@ -18907,7 +18921,7 @@
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B563" s="1">
         <v>45518</v>
@@ -18939,7 +18953,7 @@
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B564" s="1">
         <v>45518</v>
@@ -18971,7 +18985,7 @@
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B565" s="1">
         <v>45518</v>
@@ -19003,7 +19017,7 @@
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B566" s="1">
         <v>45518</v>
@@ -19035,7 +19049,7 @@
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B567" s="1">
         <v>45518</v>
@@ -19067,7 +19081,7 @@
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B568" s="1">
         <v>45518</v>
@@ -19099,7 +19113,7 @@
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B569" s="1">
         <v>45518</v>
@@ -19131,7 +19145,7 @@
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B570" s="1">
         <v>45518</v>
@@ -19163,7 +19177,7 @@
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B571" s="1">
         <v>45518</v>
@@ -19195,7 +19209,7 @@
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B572" s="1">
         <v>45518</v>
@@ -19227,7 +19241,7 @@
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B573" s="1">
         <v>45518</v>
@@ -19259,7 +19273,7 @@
     </row>
     <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B574" s="1">
         <v>45518</v>
@@ -19291,7 +19305,7 @@
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B575" s="1">
         <v>45518</v>
@@ -19323,7 +19337,7 @@
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B576" s="1">
         <v>45518</v>
@@ -19355,7 +19369,7 @@
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B577" s="1">
         <v>45518</v>
@@ -19387,7 +19401,7 @@
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B578" s="1">
         <v>45518</v>
@@ -19419,7 +19433,7 @@
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B579" s="1">
         <v>45518</v>
@@ -19451,7 +19465,7 @@
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B580" s="1">
         <v>45518</v>
@@ -19483,7 +19497,7 @@
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B581" s="1">
         <v>45518</v>
@@ -19515,7 +19529,7 @@
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B582" s="1">
         <v>45518</v>
@@ -19547,7 +19561,7 @@
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B583" s="1">
         <v>45518</v>
@@ -19579,7 +19593,7 @@
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B584" s="1">
         <v>45518</v>
@@ -19611,7 +19625,7 @@
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B585" s="1">
         <v>45518</v>
@@ -19643,7 +19657,7 @@
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B586" s="1">
         <v>45518</v>
@@ -19675,7 +19689,7 @@
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B587" s="1">
         <v>45518</v>
@@ -19707,7 +19721,7 @@
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B588" s="1">
         <v>45518</v>
@@ -19739,7 +19753,7 @@
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B589" s="1">
         <v>45518</v>
@@ -19771,7 +19785,7 @@
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B590" s="1">
         <v>45518</v>
@@ -19803,7 +19817,7 @@
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B591" s="1">
         <v>45518</v>
@@ -19835,7 +19849,7 @@
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B592" s="1">
         <v>45518</v>
@@ -19867,7 +19881,7 @@
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B593" s="1">
         <v>45518</v>
@@ -19899,7 +19913,7 @@
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B594" s="1">
         <v>45518</v>
@@ -19931,7 +19945,7 @@
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B595" s="1">
         <v>45518</v>
@@ -19963,7 +19977,7 @@
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B596" s="1">
         <v>45518</v>
@@ -19995,7 +20009,7 @@
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B597" s="1">
         <v>45518</v>
@@ -20027,7 +20041,7 @@
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B598" s="1">
         <v>45518</v>
@@ -20059,7 +20073,7 @@
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B599" s="1">
         <v>45518</v>
@@ -20091,7 +20105,7 @@
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B600" s="1">
         <v>45518</v>
@@ -20123,7 +20137,7 @@
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B601" s="1">
         <v>45518</v>
@@ -20155,7 +20169,7 @@
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B602" s="1">
         <v>45518</v>
@@ -20187,7 +20201,7 @@
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B603" s="1">
         <v>45518</v>
@@ -20219,7 +20233,7 @@
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B604" s="1">
         <v>45518</v>
@@ -20251,7 +20265,7 @@
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B605" s="1">
         <v>45518</v>
@@ -20283,7 +20297,7 @@
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B606" s="1">
         <v>45518</v>
@@ -20315,7 +20329,7 @@
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B607" s="1">
         <v>45518</v>
@@ -20347,7 +20361,7 @@
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B608" s="1">
         <v>45518</v>
@@ -20379,7 +20393,7 @@
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B609" s="1">
         <v>45518</v>
@@ -20411,7 +20425,7 @@
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B610" s="1">
         <v>45518</v>
@@ -20443,7 +20457,7 @@
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B611" s="1">
         <v>45518</v>
@@ -20475,7 +20489,7 @@
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B612" s="1">
         <v>45518</v>
@@ -20507,7 +20521,7 @@
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B613" s="1">
         <v>45518</v>
@@ -20539,7 +20553,7 @@
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B614" s="1">
         <v>45518</v>
@@ -20571,7 +20585,7 @@
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B615" s="1">
         <v>45518</v>
@@ -20603,7 +20617,7 @@
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B616" s="1">
         <v>45518</v>
@@ -20635,7 +20649,7 @@
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B617" s="1">
         <v>45518</v>
@@ -20667,7 +20681,7 @@
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B618" s="1">
         <v>45518</v>
@@ -20699,7 +20713,7 @@
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B619" s="1">
         <v>45518</v>
@@ -20731,7 +20745,7 @@
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B620" s="1">
         <v>45518</v>
@@ -20763,7 +20777,7 @@
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B621" s="1">
         <v>45518</v>
@@ -20795,7 +20809,7 @@
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B622" s="1">
         <v>45518</v>
@@ -20827,7 +20841,7 @@
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B623" s="1">
         <v>45518</v>
@@ -20859,7 +20873,7 @@
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B624" s="1">
         <v>45518</v>
@@ -20891,7 +20905,7 @@
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B625" s="1">
         <v>45518</v>
@@ -20923,7 +20937,7 @@
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B626" s="1">
         <v>45518</v>
@@ -20955,7 +20969,7 @@
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B627" s="1">
         <v>45518</v>
@@ -20987,7 +21001,7 @@
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B628" s="1">
         <v>45518</v>
@@ -21019,7 +21033,7 @@
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B629" s="1">
         <v>45518</v>
@@ -21051,7 +21065,7 @@
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B630" s="1">
         <v>45518</v>
@@ -21083,7 +21097,7 @@
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B631" s="1">
         <v>45518</v>
@@ -21115,7 +21129,7 @@
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B632" s="1">
         <v>45518</v>
@@ -21147,7 +21161,7 @@
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B633" s="1">
         <v>45518</v>
@@ -21179,7 +21193,7 @@
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B634" s="1">
         <v>45518</v>
@@ -21211,7 +21225,7 @@
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B635" s="1">
         <v>45518</v>
@@ -21243,7 +21257,7 @@
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B636" s="1">
         <v>45518</v>
@@ -21275,7 +21289,7 @@
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B637" s="1">
         <v>45518</v>
@@ -21307,7 +21321,7 @@
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B638" s="1">
         <v>45518</v>
@@ -21339,7 +21353,7 @@
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B639" s="1">
         <v>45518</v>
@@ -21371,7 +21385,7 @@
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B640" s="1">
         <v>45518</v>
@@ -21403,7 +21417,7 @@
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B641" s="1">
         <v>45518</v>
@@ -21435,7 +21449,7 @@
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B642" s="1">
         <v>45518</v>
@@ -21467,7 +21481,7 @@
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B643" s="1">
         <v>45518</v>
@@ -21499,7 +21513,7 @@
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B644" s="1">
         <v>45518</v>
@@ -21531,7 +21545,7 @@
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B645" s="1">
         <v>45518</v>
@@ -21563,7 +21577,7 @@
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B646" s="1">
         <v>45518</v>
@@ -21595,7 +21609,7 @@
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B647" s="1">
         <v>45518</v>
@@ -21627,7 +21641,7 @@
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B648" s="1">
         <v>45518</v>
@@ -21659,7 +21673,7 @@
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B649" s="1">
         <v>45518</v>
@@ -21691,7 +21705,7 @@
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B650" s="1">
         <v>45518</v>
@@ -21723,7 +21737,7 @@
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B651" s="1">
         <v>45518</v>
@@ -21755,7 +21769,7 @@
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B652" s="1">
         <v>45518</v>
@@ -21787,7 +21801,7 @@
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B653" s="1">
         <v>45518</v>
@@ -21819,7 +21833,7 @@
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B654" s="1">
         <v>45518</v>
@@ -21851,7 +21865,7 @@
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B655" s="1">
         <v>45518</v>
@@ -21883,7 +21897,7 @@
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B656" s="1">
         <v>45518</v>
@@ -21915,7 +21929,7 @@
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B657" s="1">
         <v>45518</v>
@@ -21947,7 +21961,7 @@
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B658" s="1">
         <v>45518</v>
@@ -21979,7 +21993,7 @@
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B659" s="1">
         <v>45518</v>
@@ -22011,7 +22025,7 @@
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B660" s="1">
         <v>45518</v>
@@ -22043,7 +22057,7 @@
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B661" s="1">
         <v>45518</v>
@@ -22075,7 +22089,7 @@
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B662" s="1">
         <v>45518</v>
@@ -22107,7 +22121,7 @@
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B663" s="1">
         <v>45518</v>
@@ -22139,7 +22153,7 @@
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B664" s="1">
         <v>45518</v>
@@ -22171,7 +22185,7 @@
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B665" s="1">
         <v>45518</v>
@@ -22203,7 +22217,7 @@
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B666" s="1">
         <v>45518</v>
@@ -22235,7 +22249,7 @@
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B667" s="1">
         <v>45518</v>
@@ -22267,7 +22281,7 @@
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B668" s="1">
         <v>45518</v>
@@ -22299,7 +22313,7 @@
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B669" s="1">
         <v>45518</v>
@@ -22331,7 +22345,7 @@
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B670" s="1">
         <v>45518</v>
@@ -22363,7 +22377,7 @@
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B671" s="1">
         <v>45518</v>
@@ -22395,7 +22409,7 @@
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B672" s="1">
         <v>45518</v>
@@ -22427,7 +22441,7 @@
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B673" s="1">
         <v>45518</v>
@@ -22459,7 +22473,7 @@
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B674" s="1">
         <v>45518</v>
@@ -22491,7 +22505,7 @@
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B675" s="1">
         <v>45518</v>
@@ -22523,7 +22537,7 @@
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B676" s="1">
         <v>45518</v>
@@ -22555,7 +22569,7 @@
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B677" s="1">
         <v>45518</v>
@@ -22587,7 +22601,7 @@
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B678" s="1">
         <v>45518</v>
@@ -22619,7 +22633,7 @@
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B679" s="1">
         <v>45518</v>
@@ -22651,7 +22665,7 @@
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B680" s="1">
         <v>45518</v>
@@ -22683,7 +22697,7 @@
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B681" s="1">
         <v>45518</v>
@@ -22715,7 +22729,7 @@
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B682" s="1">
         <v>45518</v>
@@ -22747,7 +22761,7 @@
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B683" s="1">
         <v>45518</v>
@@ -22779,7 +22793,7 @@
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B684" s="1">
         <v>45518</v>
@@ -22811,7 +22825,7 @@
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B685" s="1">
         <v>45518</v>
@@ -22843,7 +22857,7 @@
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B686" s="1">
         <v>45518</v>
@@ -22875,7 +22889,7 @@
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B687" s="1">
         <v>45518</v>
@@ -22907,7 +22921,7 @@
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B688" s="1">
         <v>45518</v>
@@ -22939,7 +22953,7 @@
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B689" s="1">
         <v>45518</v>
@@ -22971,7 +22985,7 @@
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B690" s="1">
         <v>45518</v>
@@ -23003,7 +23017,7 @@
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B691" s="1">
         <v>45518</v>
@@ -23035,7 +23049,7 @@
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B692" s="1">
         <v>45518</v>
@@ -23067,7 +23081,7 @@
     </row>
     <row r="693" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B693" s="1">
         <v>45518</v>
@@ -23099,7 +23113,7 @@
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B694" s="1">
         <v>45518</v>
@@ -23131,7 +23145,7 @@
     </row>
     <row r="695" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B695" s="1">
         <v>45518</v>
@@ -23163,7 +23177,7 @@
     </row>
     <row r="696" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B696" s="1">
         <v>45518</v>
@@ -23195,7 +23209,7 @@
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B697" s="1">
         <v>45518</v>
@@ -23227,7 +23241,7 @@
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B698" s="1">
         <v>45518</v>
@@ -23259,7 +23273,7 @@
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B699" s="1">
         <v>45518</v>
@@ -23291,7 +23305,7 @@
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B700" s="1">
         <v>45518</v>
@@ -23323,7 +23337,7 @@
     </row>
     <row r="701" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B701" s="1">
         <v>45518</v>
@@ -23355,7 +23369,7 @@
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B702" s="1">
         <v>45518</v>
@@ -23387,7 +23401,7 @@
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B703" s="1">
         <v>45518</v>
@@ -23419,7 +23433,7 @@
     </row>
     <row r="704" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B704" s="1">
         <v>45518</v>
@@ -23451,7 +23465,7 @@
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B705" s="1">
         <v>45518</v>
@@ -23483,7 +23497,7 @@
     </row>
     <row r="706" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B706" s="1">
         <v>45518</v>
@@ -23515,7 +23529,7 @@
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B707" s="1">
         <v>45518</v>
@@ -23547,7 +23561,7 @@
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B708" s="1">
         <v>45518</v>
@@ -23579,7 +23593,7 @@
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B709" s="1">
         <v>45518</v>
@@ -23611,7 +23625,7 @@
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B710" s="1">
         <v>45518</v>
@@ -23643,7 +23657,7 @@
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B711" s="1">
         <v>45518</v>
@@ -23675,7 +23689,7 @@
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B712" s="1">
         <v>45518</v>
@@ -23707,7 +23721,7 @@
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B713" s="1">
         <v>45518</v>
@@ -23739,7 +23753,7 @@
     </row>
     <row r="714" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B714" s="1">
         <v>45518</v>
@@ -23771,7 +23785,7 @@
     </row>
     <row r="715" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B715" s="1">
         <v>45518</v>
@@ -23803,7 +23817,7 @@
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B716" s="1">
         <v>45518</v>
@@ -23835,7 +23849,7 @@
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B717" s="1">
         <v>45518</v>
@@ -23867,7 +23881,7 @@
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B718" s="1">
         <v>45518</v>
@@ -23899,7 +23913,7 @@
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B719" s="1">
         <v>45518</v>
@@ -23931,7 +23945,7 @@
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B720" s="1">
         <v>45518</v>
@@ -23963,7 +23977,7 @@
     </row>
     <row r="721" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B721" s="1">
         <v>45518</v>
@@ -23995,7 +24009,7 @@
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B722" s="1">
         <v>45518</v>
@@ -24027,7 +24041,7 @@
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B723" s="1">
         <v>45518</v>
@@ -24059,7 +24073,7 @@
     </row>
     <row r="724" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B724" s="1">
         <v>45518</v>
@@ -24091,7 +24105,7 @@
     </row>
     <row r="725" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B725" s="1">
         <v>45518</v>
@@ -24123,7 +24137,7 @@
     </row>
     <row r="726" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B726" s="1">
         <v>45518</v>
@@ -24155,7 +24169,7 @@
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B727" s="1">
         <v>45518</v>
@@ -24187,7 +24201,7 @@
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B728" s="1">
         <v>45518</v>
@@ -24219,7 +24233,7 @@
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B729" s="1">
         <v>45518</v>
@@ -24251,7 +24265,7 @@
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B730" s="1">
         <v>45518</v>
@@ -24283,7 +24297,7 @@
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B731" s="1">
         <v>45518</v>
@@ -24315,7 +24329,7 @@
     </row>
     <row r="732" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B732" s="1">
         <v>45518</v>
@@ -24347,7 +24361,7 @@
     </row>
     <row r="733" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B733" s="1">
         <v>45518</v>
@@ -24379,7 +24393,7 @@
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B734" s="1">
         <v>45518</v>
@@ -24411,7 +24425,7 @@
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B735" s="1">
         <v>45518</v>
@@ -24443,7 +24457,7 @@
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B736" s="1">
         <v>45518</v>
@@ -24475,7 +24489,7 @@
     </row>
     <row r="737" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B737" s="1">
         <v>45518</v>
@@ -24507,7 +24521,7 @@
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B738" s="1">
         <v>45518</v>
@@ -24539,7 +24553,7 @@
     </row>
     <row r="739" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B739" s="1">
         <v>45518</v>
@@ -24571,7 +24585,7 @@
     </row>
     <row r="740" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B740" s="1">
         <v>45518</v>
@@ -24603,7 +24617,7 @@
     </row>
     <row r="741" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B741" s="1">
         <v>45518</v>
@@ -24635,7 +24649,7 @@
     </row>
     <row r="742" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B742" s="1">
         <v>45518</v>
@@ -24667,7 +24681,7 @@
     </row>
     <row r="743" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B743" s="1">
         <v>45518</v>
@@ -24699,7 +24713,7 @@
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B744" s="1">
         <v>45518</v>
@@ -24731,7 +24745,7 @@
     </row>
     <row r="745" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B745" s="1">
         <v>45518</v>
@@ -24763,7 +24777,7 @@
     </row>
     <row r="746" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B746" s="1">
         <v>45518</v>
@@ -24795,7 +24809,7 @@
     </row>
     <row r="747" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B747" s="1">
         <v>45518</v>
@@ -24827,7 +24841,7 @@
     </row>
     <row r="748" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B748" s="1">
         <v>45518</v>
@@ -24859,7 +24873,7 @@
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B749" s="1">
         <v>45518</v>
@@ -24891,7 +24905,7 @@
     </row>
     <row r="750" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B750" s="1">
         <v>45518</v>
@@ -24923,7 +24937,7 @@
     </row>
     <row r="751" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B751" s="1">
         <v>45518</v>
@@ -24955,7 +24969,7 @@
     </row>
     <row r="752" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B752" s="1">
         <v>45518</v>
@@ -24987,7 +25001,7 @@
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B753" s="1">
         <v>45518</v>
@@ -25019,7 +25033,7 @@
     </row>
     <row r="754" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B754" s="1">
         <v>45518</v>
@@ -25051,7 +25065,7 @@
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B755" s="1">
         <v>45518</v>
@@ -25083,7 +25097,7 @@
     </row>
     <row r="756" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B756" s="1">
         <v>45518</v>
@@ -25115,7 +25129,7 @@
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B757" s="1">
         <v>45518</v>
@@ -25147,7 +25161,7 @@
     </row>
     <row r="758" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B758" s="1">
         <v>45518</v>
@@ -25179,7 +25193,7 @@
     </row>
     <row r="759" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B759" s="1">
         <v>45518</v>
@@ -25211,7 +25225,7 @@
     </row>
     <row r="760" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B760" s="1">
         <v>45518</v>
@@ -25243,7 +25257,7 @@
     </row>
     <row r="761" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B761" s="1">
         <v>45518</v>
@@ -25275,7 +25289,7 @@
     </row>
     <row r="762" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B762" s="1">
         <v>45518</v>
@@ -25307,7 +25321,7 @@
     </row>
     <row r="763" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B763" s="1">
         <v>45518</v>
@@ -25339,7 +25353,7 @@
     </row>
     <row r="764" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B764" s="1">
         <v>45518</v>
@@ -25371,7 +25385,7 @@
     </row>
     <row r="765" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B765" s="1">
         <v>45518</v>
@@ -25403,7 +25417,7 @@
     </row>
     <row r="766" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B766" s="1">
         <v>45518</v>
@@ -25435,7 +25449,7 @@
     </row>
     <row r="767" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B767" s="1">
         <v>45518</v>
@@ -25467,7 +25481,7 @@
     </row>
     <row r="768" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B768" s="1">
         <v>45518</v>
@@ -25499,7 +25513,7 @@
     </row>
     <row r="769" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B769" s="1">
         <v>45518</v>
@@ -25531,7 +25545,7 @@
     </row>
     <row r="770" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B770" s="1">
         <v>45518</v>
@@ -25563,7 +25577,7 @@
     </row>
     <row r="771" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B771" s="1">
         <v>45518</v>
@@ -25595,7 +25609,7 @@
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B772" s="1">
         <v>45518</v>
@@ -25627,7 +25641,7 @@
     </row>
     <row r="773" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B773" s="1">
         <v>45518</v>
@@ -25659,7 +25673,7 @@
     </row>
     <row r="774" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B774" s="1">
         <v>45518</v>
@@ -25691,7 +25705,7 @@
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B775" s="1">
         <v>45518</v>
@@ -25723,7 +25737,7 @@
     </row>
     <row r="776" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B776" s="1">
         <v>45518</v>
@@ -25755,7 +25769,7 @@
     </row>
     <row r="777" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B777" s="1">
         <v>45518</v>
@@ -25787,7 +25801,7 @@
     </row>
     <row r="778" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B778" s="1">
         <v>45518</v>
@@ -25819,7 +25833,7 @@
     </row>
     <row r="779" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B779" s="1">
         <v>45518</v>
@@ -25851,7 +25865,7 @@
     </row>
     <row r="780" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B780" s="1">
         <v>45518</v>
@@ -25883,7 +25897,7 @@
     </row>
     <row r="781" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B781" s="1">
         <v>45518</v>
@@ -25915,7 +25929,7 @@
     </row>
     <row r="782" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B782" s="1">
         <v>45518</v>
@@ -25947,7 +25961,7 @@
     </row>
     <row r="783" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B783" s="1">
         <v>45518</v>
@@ -25979,7 +25993,7 @@
     </row>
     <row r="784" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B784" s="1">
         <v>45518</v>
@@ -26011,7 +26025,7 @@
     </row>
     <row r="785" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B785" s="1">
         <v>45518</v>
@@ -26043,7 +26057,7 @@
     </row>
     <row r="786" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B786" s="1">
         <v>45518</v>
@@ -26075,7 +26089,7 @@
     </row>
     <row r="787" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B787" s="1">
         <v>45518</v>
@@ -26107,7 +26121,7 @@
     </row>
     <row r="788" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B788" s="1">
         <v>45518</v>
@@ -26139,7 +26153,7 @@
     </row>
     <row r="789" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B789" s="1">
         <v>45518</v>
@@ -26171,7 +26185,7 @@
     </row>
     <row r="790" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B790" s="1">
         <v>45518</v>
@@ -26203,7 +26217,7 @@
     </row>
     <row r="791" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B791" s="1">
         <v>45518</v>
@@ -26235,7 +26249,7 @@
     </row>
     <row r="792" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B792" s="1">
         <v>45518</v>
@@ -26267,7 +26281,7 @@
     </row>
     <row r="793" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B793" s="1">
         <v>45518</v>
@@ -26299,7 +26313,7 @@
     </row>
     <row r="794" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B794" s="1">
         <v>45518</v>
@@ -26331,7 +26345,7 @@
     </row>
     <row r="795" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B795" s="1">
         <v>45518</v>
@@ -26363,7 +26377,7 @@
     </row>
     <row r="796" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B796" s="1">
         <v>45518</v>
@@ -26395,7 +26409,7 @@
     </row>
     <row r="797" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B797" s="1">
         <v>45518</v>
@@ -26427,7 +26441,7 @@
     </row>
     <row r="798" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B798" s="1">
         <v>45518</v>
@@ -26459,7 +26473,7 @@
     </row>
     <row r="799" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B799" s="1">
         <v>45518</v>
@@ -26491,7 +26505,7 @@
     </row>
     <row r="800" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B800" s="1">
         <v>45518</v>
@@ -26523,7 +26537,7 @@
     </row>
     <row r="801" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B801" s="1">
         <v>45518</v>
@@ -26555,7 +26569,7 @@
     </row>
     <row r="802" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B802" s="1">
         <v>45518</v>
@@ -26587,7 +26601,7 @@
     </row>
     <row r="803" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B803" s="1">
         <v>45518</v>
@@ -26619,7 +26633,7 @@
     </row>
     <row r="804" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B804" s="1">
         <v>45518</v>
@@ -26651,7 +26665,7 @@
     </row>
     <row r="805" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B805" s="1">
         <v>45518</v>
@@ -26683,7 +26697,7 @@
     </row>
     <row r="806" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B806" s="1">
         <v>45518</v>
@@ -26715,7 +26729,7 @@
     </row>
     <row r="807" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B807" s="1">
         <v>45518</v>
@@ -26747,7 +26761,7 @@
     </row>
     <row r="808" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B808" s="1">
         <v>45518</v>
@@ -26779,7 +26793,7 @@
     </row>
     <row r="809" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B809" s="1">
         <v>45518</v>
@@ -26811,7 +26825,7 @@
     </row>
     <row r="810" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B810" s="1">
         <v>45518</v>
@@ -26843,7 +26857,7 @@
     </row>
     <row r="811" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B811" s="1">
         <v>45518</v>
@@ -26875,7 +26889,7 @@
     </row>
     <row r="812" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B812" s="1">
         <v>45518</v>
@@ -26907,7 +26921,7 @@
     </row>
     <row r="813" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B813" s="1">
         <v>45518</v>
@@ -26939,7 +26953,7 @@
     </row>
     <row r="814" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B814" s="1">
         <v>45518</v>
@@ -26971,7 +26985,7 @@
     </row>
     <row r="815" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B815" s="1">
         <v>45518</v>
@@ -27003,7 +27017,7 @@
     </row>
     <row r="816" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B816" s="1">
         <v>45518</v>
@@ -27035,7 +27049,7 @@
     </row>
     <row r="817" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B817" s="1">
         <v>45518</v>
@@ -27067,7 +27081,7 @@
     </row>
     <row r="818" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B818" s="1">
         <v>45518</v>
@@ -27099,7 +27113,7 @@
     </row>
     <row r="819" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B819" s="1">
         <v>45518</v>
@@ -27131,7 +27145,7 @@
     </row>
     <row r="820" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B820" s="1">
         <v>45518</v>
@@ -27163,7 +27177,7 @@
     </row>
     <row r="821" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B821" s="1">
         <v>45518</v>
@@ -27195,7 +27209,7 @@
     </row>
     <row r="822" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B822" s="1">
         <v>45518</v>
@@ -27227,7 +27241,7 @@
     </row>
     <row r="823" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B823" s="1">
         <v>45518</v>
@@ -27259,7 +27273,7 @@
     </row>
     <row r="824" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B824" s="1">
         <v>45518</v>
@@ -27291,7 +27305,7 @@
     </row>
     <row r="825" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B825" s="1">
         <v>45518</v>
@@ -27323,7 +27337,7 @@
     </row>
     <row r="826" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B826" s="1">
         <v>45518</v>
@@ -27355,7 +27369,7 @@
     </row>
     <row r="827" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B827" s="1">
         <v>45518</v>
@@ -27387,7 +27401,7 @@
     </row>
     <row r="828" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B828" s="1">
         <v>45518</v>
@@ -27419,7 +27433,7 @@
     </row>
     <row r="829" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B829" s="1">
         <v>45518</v>
@@ -27451,7 +27465,7 @@
     </row>
     <row r="830" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B830" s="1">
         <v>45518</v>
@@ -27483,7 +27497,7 @@
     </row>
     <row r="831" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B831" s="1">
         <v>45518</v>
@@ -27515,7 +27529,7 @@
     </row>
     <row r="832" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B832" s="1">
         <v>45518</v>
@@ -27547,7 +27561,7 @@
     </row>
     <row r="833" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B833" s="1">
         <v>45518</v>
@@ -27579,7 +27593,7 @@
     </row>
     <row r="834" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B834" s="1">
         <v>45518</v>
@@ -27611,7 +27625,7 @@
     </row>
     <row r="835" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B835" s="1">
         <v>45518</v>
@@ -27643,7 +27657,7 @@
     </row>
     <row r="836" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B836" s="1">
         <v>45518</v>
@@ -27675,7 +27689,7 @@
     </row>
     <row r="837" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B837" s="1">
         <v>45518</v>
@@ -27707,7 +27721,7 @@
     </row>
     <row r="838" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B838" s="1">
         <v>45518</v>
@@ -27739,7 +27753,7 @@
     </row>
     <row r="839" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B839" s="1">
         <v>45518</v>
@@ -27771,7 +27785,7 @@
     </row>
     <row r="840" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B840" s="1">
         <v>45518</v>
@@ -27803,7 +27817,7 @@
     </row>
     <row r="841" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B841" s="1">
         <v>45518</v>
@@ -27835,7 +27849,7 @@
     </row>
     <row r="842" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B842" s="1">
         <v>45518</v>
@@ -27867,7 +27881,7 @@
     </row>
     <row r="843" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B843" s="1">
         <v>45518</v>
@@ -27899,7 +27913,7 @@
     </row>
     <row r="844" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B844" s="1">
         <v>45518</v>
@@ -27931,7 +27945,7 @@
     </row>
     <row r="845" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B845" s="1">
         <v>45518</v>
@@ -27963,7 +27977,7 @@
     </row>
     <row r="846" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B846" s="1">
         <v>45518</v>
@@ -27995,7 +28009,7 @@
     </row>
     <row r="847" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B847" s="1">
         <v>45518</v>
@@ -28027,7 +28041,7 @@
     </row>
     <row r="848" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B848" s="1">
         <v>45518</v>
@@ -28059,7 +28073,7 @@
     </row>
     <row r="849" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B849" s="1">
         <v>45518</v>
@@ -28091,7 +28105,7 @@
     </row>
     <row r="850" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B850" s="1">
         <v>45518</v>
@@ -28123,7 +28137,7 @@
     </row>
     <row r="851" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B851" s="1">
         <v>45518</v>
@@ -28155,7 +28169,7 @@
     </row>
     <row r="852" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B852" s="1">
         <v>45518</v>
@@ -28187,7 +28201,7 @@
     </row>
     <row r="853" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B853" s="1">
         <v>45518</v>
@@ -28219,7 +28233,7 @@
     </row>
     <row r="854" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B854" s="1">
         <v>45518</v>
@@ -28251,7 +28265,7 @@
     </row>
     <row r="855" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B855" s="1">
         <v>45518</v>
@@ -28283,7 +28297,7 @@
     </row>
     <row r="856" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B856" s="1">
         <v>45518</v>
@@ -28315,7 +28329,7 @@
     </row>
     <row r="857" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B857" s="1">
         <v>45518</v>
@@ -28347,7 +28361,7 @@
     </row>
     <row r="858" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B858" s="1">
         <v>45518</v>
@@ -28379,7 +28393,7 @@
     </row>
     <row r="859" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B859" s="1">
         <v>45518</v>
@@ -28411,7 +28425,7 @@
     </row>
     <row r="860" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B860" s="1">
         <v>45518</v>
@@ -28443,7 +28457,7 @@
     </row>
     <row r="861" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B861" s="1">
         <v>45518</v>
@@ -28475,7 +28489,7 @@
     </row>
     <row r="862" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B862" s="1">
         <v>45518</v>
@@ -28507,7 +28521,7 @@
     </row>
     <row r="863" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B863" s="1">
         <v>45518</v>
@@ -28539,7 +28553,7 @@
     </row>
     <row r="864" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B864" s="1">
         <v>45518</v>
@@ -28571,7 +28585,7 @@
     </row>
     <row r="865" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B865" s="1">
         <v>45518</v>
@@ -28603,7 +28617,7 @@
     </row>
     <row r="866" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B866" s="1">
         <v>45518</v>
@@ -28635,7 +28649,7 @@
     </row>
     <row r="867" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B867" s="1">
         <v>45518</v>
@@ -28667,7 +28681,7 @@
     </row>
     <row r="868" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B868" s="1">
         <v>45518</v>
@@ -28699,7 +28713,7 @@
     </row>
     <row r="869" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B869" s="1">
         <v>45518</v>
@@ -28731,7 +28745,7 @@
     </row>
     <row r="870" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B870" s="1">
         <v>45518</v>
@@ -28763,7 +28777,7 @@
     </row>
     <row r="871" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B871" s="1">
         <v>45518</v>
@@ -28795,7 +28809,7 @@
     </row>
     <row r="872" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B872" s="1">
         <v>45518</v>
@@ -28827,7 +28841,7 @@
     </row>
     <row r="873" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B873" s="1">
         <v>45518</v>
@@ -28859,7 +28873,7 @@
     </row>
     <row r="874" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B874" s="1">
         <v>45518</v>
@@ -28891,7 +28905,7 @@
     </row>
     <row r="875" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B875" s="1">
         <v>45518</v>
@@ -28923,7 +28937,7 @@
     </row>
     <row r="876" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B876" s="1">
         <v>45518</v>
@@ -28955,7 +28969,7 @@
     </row>
     <row r="877" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B877" s="1">
         <v>45518</v>
@@ -28987,7 +29001,7 @@
     </row>
     <row r="878" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B878" s="1">
         <v>45518</v>
@@ -29019,7 +29033,7 @@
     </row>
     <row r="879" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B879" s="1">
         <v>45518</v>
@@ -29051,7 +29065,7 @@
     </row>
     <row r="880" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B880" s="1">
         <v>45518</v>
@@ -29083,7 +29097,7 @@
     </row>
     <row r="881" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B881" s="1">
         <v>45518</v>
@@ -29115,7 +29129,7 @@
     </row>
     <row r="882" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B882" s="1">
         <v>45518</v>
@@ -29147,7 +29161,7 @@
     </row>
     <row r="883" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B883" s="1">
         <v>45518</v>
@@ -29179,7 +29193,7 @@
     </row>
     <row r="884" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B884" s="1">
         <v>45518</v>
@@ -29211,7 +29225,7 @@
     </row>
     <row r="885" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B885" s="1">
         <v>45518</v>
@@ -29243,7 +29257,7 @@
     </row>
     <row r="886" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B886" s="1">
         <v>45518</v>
@@ -29275,7 +29289,7 @@
     </row>
     <row r="887" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B887" s="1">
         <v>45518</v>
@@ -29307,7 +29321,7 @@
     </row>
     <row r="888" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B888" s="1">
         <v>45518</v>
@@ -29339,7 +29353,7 @@
     </row>
     <row r="889" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B889" s="1">
         <v>45518</v>
@@ -29371,7 +29385,7 @@
     </row>
     <row r="890" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B890" s="1">
         <v>45518</v>
@@ -29403,7 +29417,7 @@
     </row>
     <row r="891" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B891" s="1">
         <v>45518</v>
@@ -29435,7 +29449,7 @@
     </row>
     <row r="892" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B892" s="1">
         <v>45518</v>
@@ -29467,7 +29481,7 @@
     </row>
     <row r="893" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B893" s="1">
         <v>45518</v>
@@ -29499,7 +29513,7 @@
     </row>
     <row r="894" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B894" s="1">
         <v>45518</v>
@@ -29531,7 +29545,7 @@
     </row>
     <row r="895" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B895" s="1">
         <v>45518</v>
@@ -29563,7 +29577,7 @@
     </row>
     <row r="896" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B896" s="1">
         <v>45518</v>
@@ -29595,7 +29609,7 @@
     </row>
     <row r="897" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B897" s="1">
         <v>45518</v>
@@ -29627,7 +29641,7 @@
     </row>
     <row r="898" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B898" s="1">
         <v>45518</v>
@@ -29659,7 +29673,7 @@
     </row>
     <row r="899" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B899" s="1">
         <v>45518</v>
@@ -29691,7 +29705,7 @@
     </row>
     <row r="900" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B900" s="1">
         <v>45518</v>
@@ -29723,7 +29737,7 @@
     </row>
     <row r="901" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B901" s="1">
         <v>45518</v>
@@ -29755,7 +29769,7 @@
     </row>
     <row r="902" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B902" s="1">
         <v>45518</v>
@@ -29787,7 +29801,7 @@
     </row>
     <row r="903" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B903" s="1">
         <v>45518</v>
@@ -29819,7 +29833,7 @@
     </row>
     <row r="904" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B904" s="1">
         <v>45518</v>
@@ -29851,7 +29865,7 @@
     </row>
     <row r="905" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B905" s="1">
         <v>45518</v>
@@ -29883,7 +29897,7 @@
     </row>
     <row r="906" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B906" s="1">
         <v>45518</v>
@@ -29915,7 +29929,7 @@
     </row>
     <row r="907" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B907" s="1">
         <v>45518</v>
@@ -29947,7 +29961,7 @@
     </row>
     <row r="908" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B908" s="1">
         <v>45518</v>
@@ -29979,7 +29993,7 @@
     </row>
     <row r="909" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B909" s="1">
         <v>45518</v>
@@ -30011,7 +30025,7 @@
     </row>
     <row r="910" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B910" s="1">
         <v>45518</v>
@@ -30043,7 +30057,7 @@
     </row>
     <row r="911" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B911" s="1">
         <v>45518</v>
@@ -30075,7 +30089,7 @@
     </row>
     <row r="912" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B912" s="1">
         <v>45518</v>
@@ -30107,7 +30121,7 @@
     </row>
     <row r="913" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B913" s="1">
         <v>45518</v>
@@ -30139,7 +30153,7 @@
     </row>
     <row r="914" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B914" s="1">
         <v>45518</v>
@@ -30171,7 +30185,7 @@
     </row>
     <row r="915" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B915" s="1">
         <v>45518</v>
@@ -30203,7 +30217,7 @@
     </row>
     <row r="916" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B916" s="1">
         <v>45518</v>
@@ -30235,7 +30249,7 @@
     </row>
     <row r="917" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B917" s="1">
         <v>45518</v>
@@ -30267,7 +30281,7 @@
     </row>
     <row r="918" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B918" s="1">
         <v>45518</v>
@@ -30299,7 +30313,7 @@
     </row>
     <row r="919" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B919" s="1">
         <v>45518</v>
@@ -30331,7 +30345,7 @@
     </row>
     <row r="920" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B920" s="1">
         <v>45518</v>
@@ -30363,7 +30377,7 @@
     </row>
     <row r="921" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B921" s="1">
         <v>45518</v>
@@ -30395,7 +30409,7 @@
     </row>
     <row r="922" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B922" s="1">
         <v>45518</v>
@@ -30427,7 +30441,7 @@
     </row>
     <row r="923" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B923" s="1">
         <v>45518</v>
@@ -30459,7 +30473,7 @@
     </row>
     <row r="924" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B924" s="1">
         <v>45518</v>
@@ -30491,7 +30505,7 @@
     </row>
     <row r="925" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B925" s="1">
         <v>45518</v>
@@ -30523,7 +30537,7 @@
     </row>
     <row r="926" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B926" s="1">
         <v>45518</v>
@@ -30555,7 +30569,7 @@
     </row>
     <row r="927" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B927" s="1">
         <v>45518</v>
@@ -30587,7 +30601,7 @@
     </row>
     <row r="928" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B928" s="1">
         <v>45518</v>

--- a/inst/extdata/ExampleCont.xlsx
+++ b/inst/extdata/ExampleCont.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proj\AquaSensR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7859D2-F241-438B-8D8D-E6CCE70E0831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4053188B-4296-4A05-90F0-D0A9FDC27AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8A2AE6C-EDC3-4226-B9D4-2DE8A25DC7E8}"/>
+    <workbookView xWindow="32460" yWindow="825" windowWidth="18270" windowHeight="14325" xr2:uid="{F8A2AE6C-EDC3-4226-B9D4-2DE8A25DC7E8}"/>
   </bookViews>
   <sheets>
     <sheet name="YSI_SUD-DO_LoggerRaw" sheetId="1" r:id="rId1"/>
@@ -40,19 +40,19 @@
     <t>DO_pctsat</t>
   </si>
   <si>
-    <t>DO_mg_L</t>
-  </si>
-  <si>
     <t>Conductivity_uS_cm</t>
-  </si>
-  <si>
-    <t>Salinity_psu</t>
   </si>
   <si>
     <t>pH_SU</t>
   </si>
   <si>
-    <t>TDS_mg_L</t>
+    <t>DO_mg_l</t>
+  </si>
+  <si>
+    <t>TDS_mg_l</t>
+  </si>
+  <si>
+    <t>Salinity_ppt</t>
   </si>
 </sst>
 </file>
@@ -918,7 +918,7 @@
   <dimension ref="A1:J928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,19 +952,19 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
